--- a/rapporter_2025/Kostra 16 - Fylkesveg tunnel høyde under 4m.xlsx
+++ b/rapporter_2025/Kostra 16 - Fylkesveg tunnel høyde under 4m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andryg\Documents\NVDB-Skripting\src\arb_kostrarapportering_2025\rapporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C6DC37-A6FB-45E0-B97F-6B77652821AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC13DE46-572F-4402-928D-B6C3DFBBF6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43395" yWindow="1035" windowWidth="23445" windowHeight="18975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51735" yWindow="6765" windowWidth="15450" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fv tunnel under 4m" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Fylke</t>
   </si>
@@ -33,12 +33,6 @@
   </si>
   <si>
     <t>Filter</t>
-  </si>
-  <si>
-    <t>trafikantgruppe</t>
-  </si>
-  <si>
-    <t>K</t>
   </si>
   <si>
     <t>tidspunkt</t>
@@ -81,7 +75,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -429,12 +422,12 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="26.42578125" customWidth="1"/>
+    <col min="1" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -508,10 +501,10 @@
         <v>46</v>
       </c>
       <c r="B7">
-        <v>13588</v>
+        <v>14036</v>
       </c>
       <c r="C7">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -543,16 +536,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -593,14 +584,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
